--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43219,6 +43219,41 @@
         <v>756500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>910700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43254,6 +43254,41 @@
         <v>910700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2000400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43289,6 +43289,41 @@
         <v>2000400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1893300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43324,6 +43324,41 @@
         <v>1893300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3734800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43359,6 +43359,41 @@
         <v>3734800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2696200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43394,6 +43394,41 @@
         <v>2696200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1531900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43429,6 +43429,41 @@
         <v>1531900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>682700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43464,6 +43464,41 @@
         <v>682700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>7421200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43499,6 +43499,41 @@
         <v>7421200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2901400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43534,6 +43534,41 @@
         <v>2901400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>2629500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43569,41 @@
         <v>2629500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3425000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43604,6 +43604,41 @@
         <v>3425000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1141900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,76 @@
         <v>1141900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1876100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,76 @@
         <v>1876100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2976600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1821100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43779,6 +43779,41 @@
         <v>1821100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>528200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43814,6 +43814,41 @@
         <v>528200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>941700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,41 @@
         <v>941700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>753700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43884,6 +43884,41 @@
         <v>753700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5616600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43919,6 +43919,76 @@
         <v>5616600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>18042000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>15911400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,41 @@
         <v>15911400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>12885100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44024,6 +44024,41 @@
         <v>12885100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>11997300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1311"/>
+  <dimension ref="A1:I1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46509,6 +46509,41 @@
         <v>11997300</v>
       </c>
     </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>4984200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1312"/>
+  <dimension ref="A1:I1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46544,6 +46544,41 @@
         <v>4984200</v>
       </c>
     </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>3646800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1313"/>
+  <dimension ref="A1:I1314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46579,6 +46579,41 @@
         <v>3646800</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>2421100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1314"/>
+  <dimension ref="A1:I1315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46614,6 +46614,41 @@
         <v>2421100</v>
       </c>
     </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>5805700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1315"/>
+  <dimension ref="A1:I1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46649,6 +46649,41 @@
         <v>5805700</v>
       </c>
     </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8550900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1316"/>
+  <dimension ref="A1:I1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46684,6 +46684,41 @@
         <v>8550900</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>4505400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1317"/>
+  <dimension ref="A1:I1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46719,6 +46719,41 @@
         <v>4505400</v>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>9316800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1318"/>
+  <dimension ref="A1:I1319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46754,6 +46754,41 @@
         <v>9316800</v>
       </c>
     </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>9938700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1319"/>
+  <dimension ref="A1:I1320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46789,6 +46789,41 @@
         <v>9938700</v>
       </c>
     </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>15669400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1320"/>
+  <dimension ref="A1:I1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46824,6 +46824,41 @@
         <v>15669400</v>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>14415200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1321"/>
+  <dimension ref="A1:I1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46859,6 +46859,41 @@
         <v>14415200</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>4398500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1322"/>
+  <dimension ref="A1:I1323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46894,6 +46894,41 @@
         <v>4398500</v>
       </c>
     </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1323" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>20609700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1323"/>
+  <dimension ref="A1:I1324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46929,6 +46929,41 @@
         <v>20609700</v>
       </c>
     </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1324" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>19642500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1324"/>
+  <dimension ref="A1:I1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46964,6 +46964,41 @@
         <v>19642500</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1325" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>47959100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1325"/>
+  <dimension ref="A1:I1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46999,6 +46999,41 @@
         <v>47959100</v>
       </c>
     </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1326" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>57450500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1326"/>
+  <dimension ref="A1:I1327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47034,6 +47034,41 @@
         <v>57450500</v>
       </c>
     </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1327" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>41762800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1327"/>
+  <dimension ref="A1:I1328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47069,6 +47069,41 @@
         <v>41762800</v>
       </c>
     </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1328" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>17758600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1328"/>
+  <dimension ref="A1:I1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47104,6 +47104,41 @@
         <v>17758600</v>
       </c>
     </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1329" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>10650200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1329"/>
+  <dimension ref="A1:I1330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47139,6 +47139,41 @@
         <v>10650200</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1330" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>17806100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1330"/>
+  <dimension ref="A1:I1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47174,6 +47174,41 @@
         <v>17806100</v>
       </c>
     </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1331" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>18789900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1331"/>
+  <dimension ref="A1:I1332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47209,6 +47209,41 @@
         <v>18789900</v>
       </c>
     </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1332" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>10290100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1332"/>
+  <dimension ref="A1:I1333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47244,6 +47244,41 @@
         <v>10290100</v>
       </c>
     </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1333" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>8863400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1333"/>
+  <dimension ref="A1:I1334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47279,6 +47279,41 @@
         <v>8863400</v>
       </c>
     </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1334" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9765500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1334"/>
+  <dimension ref="A1:I1335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47314,6 +47314,41 @@
         <v>9765500</v>
       </c>
     </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1335" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>8197100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1335"/>
+  <dimension ref="A1:I1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47349,6 +47349,41 @@
         <v>8197100</v>
       </c>
     </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1336" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>12288700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1336"/>
+  <dimension ref="A1:I1338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47384,6 +47384,76 @@
         <v>12288700</v>
       </c>
     </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1337" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>9408700</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1338" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>13068700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1338"/>
+  <dimension ref="A1:I1339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47454,6 +47454,41 @@
         <v>13068700</v>
       </c>
     </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>5254</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>BPLANT</t>
+        </is>
+      </c>
+      <c r="E1339" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>16597200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1339"/>
+  <dimension ref="A1:I1342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47489,6 +47489,111 @@
         <v>16597200</v>
       </c>
     </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1340" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>12879400</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1341" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9765600</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1342" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>3543400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1342"/>
+  <dimension ref="A1:I1343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47594,6 +47594,41 @@
         <v>3543400</v>
       </c>
     </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1343" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>4517600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1343"/>
+  <dimension ref="A1:I1344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47629,6 +47629,41 @@
         <v>4517600</v>
       </c>
     </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1344" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>7556000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5257.xlsx
+++ b/data/5257.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1344"/>
+  <dimension ref="A1:I1347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47664,6 +47664,111 @@
         <v>7556000</v>
       </c>
     </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1345" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>25284600</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1346" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>14986600</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>CARIMIN</t>
+        </is>
+      </c>
+      <c r="E1347" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>21195600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
